--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H2">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.08979185275661</v>
+        <v>0.3530253333333334</v>
       </c>
       <c r="N2">
-        <v>2.08979185275661</v>
+        <v>1.059076</v>
       </c>
       <c r="O2">
-        <v>0.6782817627547799</v>
+        <v>0.05211323950342944</v>
       </c>
       <c r="P2">
-        <v>0.6782817627547799</v>
+        <v>0.05211323950342944</v>
       </c>
       <c r="Q2">
-        <v>104.508805542766</v>
+        <v>18.21313354994222</v>
       </c>
       <c r="R2">
-        <v>104.508805542766</v>
+        <v>163.91820194948</v>
       </c>
       <c r="S2">
-        <v>0.1907025440081759</v>
+        <v>0.01376441225099694</v>
       </c>
       <c r="T2">
-        <v>0.1907025440081759</v>
+        <v>0.01376441225099694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H3">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9912166123230201</v>
+        <v>2.310677666666666</v>
       </c>
       <c r="N3">
-        <v>0.9912166123230201</v>
+        <v>6.932033</v>
       </c>
       <c r="O3">
-        <v>0.3217182372452201</v>
+        <v>0.3410998794937062</v>
       </c>
       <c r="P3">
-        <v>0.3217182372452201</v>
+        <v>0.3410998794937063</v>
       </c>
       <c r="Q3">
-        <v>49.56994355747953</v>
+        <v>119.2115039917878</v>
       </c>
       <c r="R3">
-        <v>49.56994355747953</v>
+        <v>1072.90353592609</v>
       </c>
       <c r="S3">
-        <v>0.09045280245677223</v>
+        <v>0.09009302443782603</v>
       </c>
       <c r="T3">
-        <v>0.09045280245677223</v>
+        <v>0.09009302443782607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.2534690179382</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H4">
-        <v>19.2534690179382</v>
+        <v>154.77473</v>
       </c>
       <c r="I4">
-        <v>0.1082444117297882</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J4">
-        <v>0.1082444117297882</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.08979185275661</v>
+        <v>0.07663533333333333</v>
       </c>
       <c r="N4">
-        <v>2.08979185275661</v>
+        <v>0.229906</v>
       </c>
       <c r="O4">
-        <v>0.6782817627547799</v>
+        <v>0.01131282971314188</v>
       </c>
       <c r="P4">
-        <v>0.6782817627547799</v>
+        <v>0.01131282971314188</v>
       </c>
       <c r="Q4">
-        <v>40.23574269098906</v>
+        <v>3.953737675042222</v>
       </c>
       <c r="R4">
-        <v>40.23574269098906</v>
+        <v>35.58363907537999</v>
       </c>
       <c r="S4">
-        <v>0.07342021039643494</v>
+        <v>0.002988001770390135</v>
       </c>
       <c r="T4">
-        <v>0.07342021039643494</v>
+        <v>0.002988001770390135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.2534690179382</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H5">
-        <v>19.2534690179382</v>
+        <v>154.77473</v>
       </c>
       <c r="I5">
-        <v>0.1082444117297882</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J5">
-        <v>0.1082444117297882</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9912166123230201</v>
+        <v>4.033858333333334</v>
       </c>
       <c r="N5">
-        <v>0.9912166123230201</v>
+        <v>12.101575</v>
       </c>
       <c r="O5">
-        <v>0.3217182372452201</v>
+        <v>0.5954740512897225</v>
       </c>
       <c r="P5">
-        <v>0.3217182372452201</v>
+        <v>0.5954740512897225</v>
       </c>
       <c r="Q5">
-        <v>19.08435833542693</v>
+        <v>208.1131114666389</v>
       </c>
       <c r="R5">
-        <v>19.08435833542693</v>
+        <v>1873.01800319975</v>
       </c>
       <c r="S5">
-        <v>0.0348242013333533</v>
+        <v>0.1572796165585456</v>
       </c>
       <c r="T5">
-        <v>0.0348242013333533</v>
+        <v>0.1572796165585457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.9039889621471</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>97.9039889621471</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.5504233902645641</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J6">
-        <v>0.5504233902645641</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.08979185275661</v>
+        <v>0.3530253333333334</v>
       </c>
       <c r="N6">
-        <v>2.08979185275661</v>
+        <v>1.059076</v>
       </c>
       <c r="O6">
-        <v>0.6782817627547799</v>
+        <v>0.05211323950342944</v>
       </c>
       <c r="P6">
-        <v>0.6782817627547799</v>
+        <v>0.05211323950342944</v>
       </c>
       <c r="Q6">
-        <v>204.5989584854681</v>
+        <v>6.820856595884447</v>
       </c>
       <c r="R6">
-        <v>204.5989584854681</v>
+        <v>61.38770936296002</v>
       </c>
       <c r="S6">
-        <v>0.3733421474101107</v>
+        <v>0.005154801167698185</v>
       </c>
       <c r="T6">
-        <v>0.3733421474101107</v>
+        <v>0.005154801167698187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.9039889621471</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>97.9039889621471</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.5504233902645641</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J7">
-        <v>0.5504233902645641</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9912166123230201</v>
+        <v>2.310677666666666</v>
       </c>
       <c r="N7">
-        <v>0.9912166123230201</v>
+        <v>6.932033</v>
       </c>
       <c r="O7">
-        <v>0.3217182372452201</v>
+        <v>0.3410998794937062</v>
       </c>
       <c r="P7">
-        <v>0.3217182372452201</v>
+        <v>0.3410998794937063</v>
       </c>
       <c r="Q7">
-        <v>97.0440602719698</v>
+        <v>44.64495750157556</v>
       </c>
       <c r="R7">
-        <v>97.0440602719698</v>
+        <v>401.8046175141801</v>
       </c>
       <c r="S7">
-        <v>0.1770812428544534</v>
+        <v>0.03374002602544326</v>
       </c>
       <c r="T7">
-        <v>0.1770812428544534</v>
+        <v>0.03374002602544327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7036763212145</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>10.7036763212145</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.06017685154069964</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J8">
-        <v>0.06017685154069964</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.08979185275661</v>
+        <v>0.07663533333333333</v>
       </c>
       <c r="N8">
-        <v>2.08979185275661</v>
+        <v>0.229906</v>
       </c>
       <c r="O8">
-        <v>0.6782817627547799</v>
+        <v>0.01131282971314188</v>
       </c>
       <c r="P8">
-        <v>0.6782817627547799</v>
+        <v>0.01131282971314188</v>
       </c>
       <c r="Q8">
-        <v>22.36845557061791</v>
+        <v>1.480683026084445</v>
       </c>
       <c r="R8">
-        <v>22.36845557061791</v>
+        <v>13.32614723476</v>
       </c>
       <c r="S8">
-        <v>0.04081686094005844</v>
+        <v>0.001119012910556767</v>
       </c>
       <c r="T8">
-        <v>0.04081686094005844</v>
+        <v>0.001119012910556768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7036763212145</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>10.7036763212145</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.06017685154069964</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J9">
-        <v>0.06017685154069964</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9912166123230201</v>
+        <v>4.033858333333334</v>
       </c>
       <c r="N9">
-        <v>0.9912166123230201</v>
+        <v>12.101575</v>
       </c>
       <c r="O9">
-        <v>0.3217182372452201</v>
+        <v>0.5954740512897225</v>
       </c>
       <c r="P9">
-        <v>0.3217182372452201</v>
+        <v>0.5954740512897225</v>
       </c>
       <c r="Q9">
-        <v>10.60966178251636</v>
+        <v>77.93879538327781</v>
       </c>
       <c r="R9">
-        <v>10.60966178251636</v>
+        <v>701.4491584495001</v>
       </c>
       <c r="S9">
-        <v>0.0193599906006412</v>
+        <v>0.05890154525358631</v>
       </c>
       <c r="T9">
-        <v>0.0193599906006412</v>
+        <v>0.05890154525358632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>112.3724673333333</v>
+      </c>
+      <c r="H10">
+        <v>337.117402</v>
+      </c>
+      <c r="I10">
+        <v>0.5752951554216499</v>
+      </c>
+      <c r="J10">
+        <v>0.57529515542165</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3530253333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.059076</v>
+      </c>
+      <c r="O10">
+        <v>0.05211323950342944</v>
+      </c>
+      <c r="P10">
+        <v>0.05211323950342944</v>
+      </c>
+      <c r="Q10">
+        <v>39.67032773783911</v>
+      </c>
+      <c r="R10">
+        <v>357.032949640552</v>
+      </c>
+      <c r="S10">
+        <v>0.0299804942196511</v>
+      </c>
+      <c r="T10">
+        <v>0.02998049421965111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>112.3724673333333</v>
+      </c>
+      <c r="H11">
+        <v>337.117402</v>
+      </c>
+      <c r="I11">
+        <v>0.5752951554216499</v>
+      </c>
+      <c r="J11">
+        <v>0.57529515542165</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.310677666666666</v>
+      </c>
+      <c r="N11">
+        <v>6.932033</v>
+      </c>
+      <c r="O11">
+        <v>0.3410998794937062</v>
+      </c>
+      <c r="P11">
+        <v>0.3410998794937063</v>
+      </c>
+      <c r="Q11">
+        <v>259.6565506153628</v>
+      </c>
+      <c r="R11">
+        <v>2336.908955538266</v>
+      </c>
+      <c r="S11">
+        <v>0.1962331081876378</v>
+      </c>
+      <c r="T11">
+        <v>0.1962331081876378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>112.3724673333333</v>
+      </c>
+      <c r="H12">
+        <v>337.117402</v>
+      </c>
+      <c r="I12">
+        <v>0.5752951554216499</v>
+      </c>
+      <c r="J12">
+        <v>0.57529515542165</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07663533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.229906</v>
+      </c>
+      <c r="O12">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="P12">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="Q12">
+        <v>8.61170149157911</v>
+      </c>
+      <c r="R12">
+        <v>77.50531342421199</v>
+      </c>
+      <c r="S12">
+        <v>0.006508216128080616</v>
+      </c>
+      <c r="T12">
+        <v>0.006508216128080617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>112.3724673333333</v>
+      </c>
+      <c r="H13">
+        <v>337.117402</v>
+      </c>
+      <c r="I13">
+        <v>0.5752951554216499</v>
+      </c>
+      <c r="J13">
+        <v>0.57529515542165</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.033858333333334</v>
+      </c>
+      <c r="N13">
+        <v>12.101575</v>
+      </c>
+      <c r="O13">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="P13">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="Q13">
+        <v>453.2946137897944</v>
+      </c>
+      <c r="R13">
+        <v>4079.65152410815</v>
+      </c>
+      <c r="S13">
+        <v>0.3425733368862804</v>
+      </c>
+      <c r="T13">
+        <v>0.3425733368862805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12.044915</v>
+      </c>
+      <c r="H14">
+        <v>36.134745</v>
+      </c>
+      <c r="I14">
+        <v>0.06166440420330686</v>
+      </c>
+      <c r="J14">
+        <v>0.06166440420330688</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3530253333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.059076</v>
+      </c>
+      <c r="O14">
+        <v>0.05211323950342944</v>
+      </c>
+      <c r="P14">
+        <v>0.05211323950342944</v>
+      </c>
+      <c r="Q14">
+        <v>4.252160132846668</v>
+      </c>
+      <c r="R14">
+        <v>38.26944119562</v>
+      </c>
+      <c r="S14">
+        <v>0.003213531865083211</v>
+      </c>
+      <c r="T14">
+        <v>0.003213531865083212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>12.044915</v>
+      </c>
+      <c r="H15">
+        <v>36.134745</v>
+      </c>
+      <c r="I15">
+        <v>0.06166440420330686</v>
+      </c>
+      <c r="J15">
+        <v>0.06166440420330688</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.310677666666666</v>
+      </c>
+      <c r="N15">
+        <v>6.932033</v>
+      </c>
+      <c r="O15">
+        <v>0.3410998794937062</v>
+      </c>
+      <c r="P15">
+        <v>0.3410998794937063</v>
+      </c>
+      <c r="Q15">
+        <v>27.83191608739833</v>
+      </c>
+      <c r="R15">
+        <v>250.487244786585</v>
+      </c>
+      <c r="S15">
+        <v>0.02103372084279916</v>
+      </c>
+      <c r="T15">
+        <v>0.02103372084279917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>12.044915</v>
+      </c>
+      <c r="H16">
+        <v>36.134745</v>
+      </c>
+      <c r="I16">
+        <v>0.06166440420330686</v>
+      </c>
+      <c r="J16">
+        <v>0.06166440420330688</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07663533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.229906</v>
+      </c>
+      <c r="O16">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="P16">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="Q16">
+        <v>0.9230660759966668</v>
+      </c>
+      <c r="R16">
+        <v>8.307594683970001</v>
+      </c>
+      <c r="S16">
+        <v>0.0006975989041143609</v>
+      </c>
+      <c r="T16">
+        <v>0.000697598904114361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12.044915</v>
+      </c>
+      <c r="H17">
+        <v>36.134745</v>
+      </c>
+      <c r="I17">
+        <v>0.06166440420330686</v>
+      </c>
+      <c r="J17">
+        <v>0.06166440420330688</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.033858333333334</v>
+      </c>
+      <c r="N17">
+        <v>12.101575</v>
+      </c>
+      <c r="O17">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="P17">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="Q17">
+        <v>48.58748074704167</v>
+      </c>
+      <c r="R17">
+        <v>437.287326723375</v>
+      </c>
+      <c r="S17">
+        <v>0.03671955259131014</v>
+      </c>
+      <c r="T17">
+        <v>0.03671955259131014</v>
       </c>
     </row>
   </sheetData>
